--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.110520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.110520.xlsx_with_dialog_acts.xlsx
@@ -1273,12 +1273,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5389,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5809,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6649,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10639,12 +10639,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11143,12 +11143,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12739,12 +12739,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13957,12 +13957,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14083,12 +14083,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14545,12 +14545,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14797,12 +14797,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15091,12 +15091,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16319,12 +16319,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16399,12 +16399,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16519,12 +16519,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16919,12 +16919,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17439,12 +17439,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17559,12 +17559,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17839,12 +17839,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17919,12 +17919,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18239,12 +18239,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18439,12 +18439,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18759,12 +18759,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18799,12 +18799,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18879,12 +18879,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18959,12 +18959,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19519,12 +19519,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22319,12 +22319,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22599,12 +22599,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22879,12 +22879,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23039,12 +23039,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23479,12 +23479,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24279,12 +24279,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24999,12 +24999,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25079,12 +25079,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27039,12 +27039,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27199,12 +27199,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27359,12 +27359,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28079,12 +28079,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32561,12 +32561,12 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32687,12 +32687,12 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
